--- a/design/excel.xlsx
+++ b/design/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2C692-049A-440A-8B81-73AB132E8114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC07231-ADFB-4921-8E58-50462C9A0D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>

--- a/design/excel.xlsx
+++ b/design/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC07231-ADFB-4921-8E58-50462C9A0D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5283A4-2752-486D-8A80-3768B3C7DF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +257,46 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,62 +661,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -688,13 +733,16 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -702,13 +750,16 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -716,13 +767,16 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -730,13 +784,16 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -744,24 +801,30 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
       </c>
       <c r="C10">
         <v>0.7</v>
@@ -769,13 +832,16 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -783,13 +849,16 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>0.9</v>
@@ -797,27 +866,33 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>46</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
       </c>
       <c r="C14">
         <v>1.1000000000000001</v>
@@ -825,24 +900,30 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
       </c>
       <c r="C16">
         <v>1.3</v>
@@ -850,13 +931,16 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>1.4</v>
@@ -864,13 +948,16 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1.5</v>
@@ -878,13 +965,16 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>1.6</v>
@@ -892,13 +982,16 @@
       <c r="D19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>1.7</v>
@@ -906,13 +999,16 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>1.8</v>
@@ -920,13 +1016,16 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>1.9</v>
@@ -934,13 +1033,16 @@
       <c r="D22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -948,13 +1050,16 @@
       <c r="D23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>2.1</v>
@@ -962,13 +1067,16 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>2.2000000000000002</v>
@@ -976,13 +1084,16 @@
       <c r="D25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>2.2999999999999998</v>
@@ -990,13 +1101,16 @@
       <c r="D26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>2.4</v>
@@ -1004,13 +1118,16 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>2.5</v>
@@ -1018,13 +1135,16 @@
       <c r="D28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>2.6</v>
@@ -1032,13 +1152,16 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>2.7</v>
@@ -1046,13 +1169,16 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>2.8</v>
@@ -1060,13 +1186,16 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>2.9</v>
@@ -1074,19 +1203,25 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1098,62 +1233,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448E36CE-EA05-46E0-B05C-5EC2B9F15F65}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -1161,13 +1305,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -1175,13 +1322,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -1189,13 +1339,16 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -1203,13 +1356,16 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -1217,24 +1373,30 @@
       <c r="D8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>0.7</v>
@@ -1242,13 +1404,16 @@
       <c r="D10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -1256,13 +1421,16 @@
       <c r="D11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>0.9</v>
@@ -1270,13 +1438,16 @@
       <c r="D12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1284,13 +1455,16 @@
       <c r="D13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1.1000000000000001</v>
@@ -1298,24 +1472,30 @@
       <c r="D14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>1.3</v>
@@ -1323,13 +1503,16 @@
       <c r="D16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>1.4</v>
@@ -1337,13 +1520,16 @@
       <c r="D17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1.5</v>
@@ -1351,13 +1537,16 @@
       <c r="D18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>1.6</v>
@@ -1365,13 +1554,16 @@
       <c r="D19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>1.7</v>
@@ -1379,13 +1571,16 @@
       <c r="D20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>1.8</v>
@@ -1393,13 +1588,16 @@
       <c r="D21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>1.9</v>
@@ -1407,13 +1605,16 @@
       <c r="D22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1421,13 +1622,16 @@
       <c r="D23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>2.1</v>
@@ -1435,13 +1639,16 @@
       <c r="D24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>2.2000000000000002</v>
@@ -1449,13 +1656,16 @@
       <c r="D25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>2.2999999999999998</v>
@@ -1463,13 +1673,16 @@
       <c r="D26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>2.4</v>
@@ -1477,13 +1690,16 @@
       <c r="D27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>2.5</v>
@@ -1491,13 +1707,16 @@
       <c r="D28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>2.6</v>
@@ -1505,13 +1724,16 @@
       <c r="D29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>2.7</v>
@@ -1519,13 +1741,16 @@
       <c r="D30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>2.8</v>
@@ -1533,13 +1758,16 @@
       <c r="D31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>2.9</v>
@@ -1547,23 +1775,30 @@
       <c r="D32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
         <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/excel.xlsx
+++ b/design/excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5283A4-2752-486D-8A80-3768B3C7DF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02218747-B874-44F9-B85A-3F17B67CA58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet23" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet23" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -292,11 +292,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$sheet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sheet1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E33"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1272,7 @@
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
